--- a/TestResults/ScriptGet.xlsx
+++ b/TestResults/ScriptGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,16 +47,118 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Verify that the Script service is successfully retrieving all Script details when no parameter is passed in URI</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Total number of records matching between DB &amp; Response: 9, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: Ram
+DB_scriptCode: Ram
+Response_scriptName: RamTest
+DB_scriptName: RamTest
+Response_scriptDescription: RamTestDesription
+DB_scriptDescription: RamTestDesription
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: *&amp;^@@@!@!!
+DB_scriptCode: *&amp;^@@@!@!!
+Response_scriptName: Script_Name33
+DB_scriptName: Script_Name33
+Response_scriptDescription: Script_Desc14
+DB_scriptDescription: Script_Desc14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: Rag222
+DB_scriptCode: Rag222
+Response_scriptName: RahTest222
+DB_scriptName: RahTest222
+Response_scriptDescription: RajestDesription222
+DB_scriptDescription: RajestDesription222
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: Data New Julyc
+DB_scriptCode: Data New Julyc
+Response_scriptName: Data New Julyc
+DB_scriptName: Data New Julyc
+Response_scriptDescription: 
+DB_scriptDescription: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: LAN2
+DB_scriptCode: LAN2
+Response_scriptName: poiu2
+DB_scriptName: poiu2
+Response_scriptDescription: poiuy2
+DB_scriptDescription: poiuy2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: Ram222
+DB_scriptCode: Ram222
+Response_scriptName: RamTest222
+DB_scriptName: RamTest222
+Response_scriptDescription: RamTestDesription222
+DB_scriptDescription: RamTestDesription222
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: LAN1
+DB_scriptCode: LAN1
+Response_scriptName: poiu1
+DB_scriptName: poiu1
+Response_scriptDescription: poiuy1
+DB_scriptDescription: poiuy1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: Scrpa
+DB_scriptCode: Scrpa
+Response_scriptName: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UseI
+DB_scriptName: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UseI
+Response_scriptDescription: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUX
+DB_scriptDescription: UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserUserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UserName UsUX
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scriptCode: LAN
+DB_scriptCode: LAN
+Response_scriptName: Lang
+DB_scriptName: Lang
+Response_scriptDescription: 
+DB_scriptDescription: 
+</t>
+  </si>
+  <si>
     <t>TC_02</t>
   </si>
   <si>
     <t>Verify that the Script service is successfully retrieving the Script details ScriptCd is passed in URI</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>ERROR</t>
@@ -70,8 +172,8 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"transactionId":"5059d671-0aff-4ded-9025-46f03001ce2d",
-		"timeStamp":"2020-07-08T10:49:47.162+0000",
+		"transactionId":"f3beaca9-0455-457b-85f1-7314bd23379d",
+		"timeStamp":"2020-07-10T10:52:22.106+0000",
 		"statusCode":"400",
 		"message":
 		{
@@ -105,13 +207,195 @@
   <si>
     <t>Exception</t>
   </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the Error message is displayed when the invalid ScriptCd (not available in Script table) is passed in URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_scriptCode: teston
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"73429508-bebb-4e1b-83f5-63bbf763baf5",
+		"timeStamp":"2020-07-10T10:52:23.472+0000",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"There are no records for the specified criteria",
+			"data":null
+		}
+	},
+	"data":
+	[
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"cc4a4baa-ac22-41ff-beca-cbde4632657e",
+		"timeStamp":"2020-07-10T10:52:24.808+0000",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the GET method for URL /v2/script"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the Script service is successfully retrieving the Script details ScriptCd (special characters) is passed in URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"75caad2f-491f-4afd-baa5-be2a972526ac",
+		"timeStamp":"2020-07-10T10:52:26.198+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"getReferenceScriptsOnCd.scrptCd: must match \"^
+			[
+				a-zA-Z0-9
+			]
+			{
+				1,
+				18
+			}$\""
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when we use GET url but selecting POST method</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"ba7d1424-7944-4ca7-8d96-c459476ad176",
+		"timeStamp":"2020-07-10T10:52:27.570+0000",
+		"statusCode":"405",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"No Such API Exists",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Request method 'POST' not supported"
+		}
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the ERROR message is received when missing HTTP Header X-CSR-SECURITY_TOKEN.</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"timeStamp":"2020-07-10T10:52:28.981+0000",
+		"statusCode":"401",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Security Error",
+			"data":
+			{
+				"errorMessage":"Exception occurred in Security Filter"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"NA",
+			"message":"Missing HTTP header X-CSR-SECURITY_TOKEN"
+		}
+	]
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="178">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -128,6 +412,556 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="10"/>
     </font>
     <font>
@@ -179,6 +1013,281 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="4">
@@ -247,7 +1356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -283,6 +1392,501 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -297,17 +1901,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -359,19 +1963,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s" s="11">
         <v>18</v>
@@ -380,6 +1984,540 @@
         <v>19</v>
       </c>
       <c r="L2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>15</v>
+      </c>
+      <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>15</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>15</v>
+      </c>
+      <c r="L5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="46">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="49">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="50">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="51">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="52">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="53">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s" s="54">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s" s="55">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="56">
+        <v>15</v>
+      </c>
+      <c r="L6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="57">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="58">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="60">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="61">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="62">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="63">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s" s="64">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s" s="65">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s" s="66">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s" s="67">
+        <v>15</v>
+      </c>
+      <c r="L7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="68">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="69">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="70">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="71">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="72">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s" s="73">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="74">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s" s="75">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s" s="76">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s" s="77">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s" s="78">
+        <v>15</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>15</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>15</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>35</v>
+      </c>
+      <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>15</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>14</v>
+      </c>
+      <c r="G14" s="140"/>
+      <c r="H14" t="s" s="141">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>15</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>35</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>14</v>
+      </c>
+      <c r="G16" s="162"/>
+      <c r="H16" t="s" s="163">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>15</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>14</v>
+      </c>
+      <c r="G17" s="173"/>
+      <c r="H17" t="s" s="174">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>15</v>
+      </c>
+      <c r="L17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
